--- a/biology/Microbiologie/Acinetobacter/Acinetobacter.xlsx
+++ b/biology/Microbiologie/Acinetobacter/Acinetobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acinetobacter est un genre de bactéries.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les souches du genre Acinetobacter sont constituées de bactéries à Gram négatif, non fermentantes, coccoïdes, non sporulées, parfois capsulées, immobiles (mais pouvant présenter une mobilité par saccade résultant de la présence de fimbriae polaires), aérobies strictes, à métabolisme respiratoire strict, catalase positive et oxydase négative.
 Les bactéries du genre Acinetobacter sont connues comme étant capables de former des inclusions intracellulaires de polyhydroxyalcanoates  sous des conditions de stress (ex : déficit d’éléments tels que le phosphore, l’azote, l’oxygène combiné avec un excès en sources carbonées)
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie du genre Acinetobacter est la suivante : A.ci.ne.to.bac.ter. Gr. pref. a-, non (préfixe privatif); Gr. ind. v. kineô, se mettre en mouvembre, bouger; N.L. adj. acinetus, incapable de se mouvoir; N.L. masc. n. bacter, un bacille; N.L. masc. n. Acinetobacter, un bacille non mobile[1]. Le nom a été validé en 1980 par l'ICSP et publié dans la liste de validation des noms de bactéries[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du genre Acinetobacter est la suivante : A.ci.ne.to.bac.ter. Gr. pref. a-, non (préfixe privatif); Gr. ind. v. kineô, se mettre en mouvembre, bouger; N.L. adj. acinetus, incapable de se mouvoir; N.L. masc. n. bacter, un bacille; N.L. masc. n. Acinetobacter, un bacille non mobile. Le nom a été validé en 1980 par l'ICSP et publié dans la liste de validation des noms de bactéries.
 </t>
         </is>
       </c>
@@ -581,7 +600,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La croissance est facilement obtenue sur les milieux ordinaires. La température d'incubation doit être comprise en 30 et 35 °C car Acinetobacter johnsonii, Acinetobacter tjernbergiae ainsi que des souches de Acinetobacter genomospecies 11 et de Acinetobacter genomospecies 14 (Tjernberg et Ursing) ne cultivent pas à 37 °C.
 Les souches de Acinetobacter parvus cultivent faiblement à 37 °C et leur croissance est meilleure lorsque l'incubation est effectuée à 30 °C.
@@ -616,7 +637,9 @@
           <t>Infections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Acinetobacter anitratus peut causer des infections diverses et même se rencontrer dans le cadre d'infections hospitalières.
 </t>
